--- a/comp_mq_bw_sample.xlsx
+++ b/comp_mq_bw_sample.xlsx
@@ -30,7 +30,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -55,6 +55,12 @@
         <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E6E6FA"/>
+        <bgColor rgb="00E6E6FA"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -74,7 +80,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -91,9 +97,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -602,276 +611,274 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>인터페이스 정보</t>
         </is>
       </c>
-      <c r="B1" s="6" t="n"/>
-      <c r="C1" s="6" t="n"/>
-      <c r="D1" s="6" t="n"/>
-      <c r="E1" s="6" t="n"/>
+      <c r="B1" s="7" t="n"/>
+      <c r="C1" s="7" t="n"/>
+      <c r="D1" s="7" t="n"/>
+      <c r="E1" s="7" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="inlineStr">
+      <c r="A2" s="8" t="inlineStr">
         <is>
           <t>인터페이스 ID</t>
         </is>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="7" t="inlineStr">
         <is>
           <t>IF001</t>
         </is>
       </c>
-      <c r="C2" s="7" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>인터페이스 명</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="D2" s="7" t="inlineStr">
         <is>
           <t>테스트 인터페이스</t>
         </is>
       </c>
-      <c r="E2" s="6" t="n"/>
+      <c r="E2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="inlineStr">
+      <c r="A3" s="8" t="inlineStr">
         <is>
           <t>송신 시스템</t>
         </is>
       </c>
-      <c r="B3" s="6" t="inlineStr">
+      <c r="B3" s="7" t="inlineStr">
         <is>
           <t>DEVDB</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C3" s="8" t="inlineStr">
         <is>
           <t>송신 테이블</t>
         </is>
       </c>
-      <c r="D3" s="6" t="inlineStr">
+      <c r="D3" s="7" t="inlineStr">
         <is>
           <t>OWNER.TEST_TABLE</t>
         </is>
       </c>
-      <c r="E3" s="6" t="n"/>
+      <c r="E3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="inlineStr">
+      <c r="A4" s="8" t="inlineStr">
         <is>
           <t>수신 시스템</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" s="7" t="inlineStr">
         <is>
           <t>PRODDB</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="C4" s="8" t="inlineStr">
         <is>
           <t>수신 테이블</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
+      <c r="D4" s="7" t="inlineStr">
         <is>
           <t>OWNER.TEST_RCV_TABLE</t>
         </is>
       </c>
-      <c r="E4" s="6" t="n"/>
+      <c r="E4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="n"/>
-      <c r="B5" s="6" t="n"/>
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="6" t="n"/>
-      <c r="E5" s="6" t="n"/>
+      <c r="A5" s="7" t="n"/>
+      <c r="B5" s="7" t="n"/>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="inlineStr">
+      <c r="A6" s="9" t="inlineStr">
         <is>
           <t>송신 파일명</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>MQ 송신 파일</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>BW 송신 파일명</t>
         </is>
       </c>
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="6" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="n"/>
-      <c r="B7" s="6" t="inlineStr">
+      <c r="A7" s="7" t="n"/>
+      <c r="B7" s="7" t="inlineStr">
         <is>
           <t>test.SND.xml</t>
         </is>
       </c>
-      <c r="C7" s="6" t="inlineStr">
+      <c r="C7" s="7" t="inlineStr">
         <is>
           <t>bw_mapping.xml</t>
         </is>
       </c>
-      <c r="D7" s="6" t="n"/>
-      <c r="E7" s="6" t="n"/>
+      <c r="D7" s="7" t="n"/>
+      <c r="E7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="inlineStr">
+      <c r="A8" s="9" t="inlineStr">
         <is>
           <t>수신 파일명</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>MQ 수신 파일</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>BW 수신 파일명</t>
         </is>
       </c>
-      <c r="D8" s="6" t="n"/>
-      <c r="E8" s="6" t="n"/>
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n"/>
-      <c r="B9" s="6" t="inlineStr">
+      <c r="A9" s="7" t="n"/>
+      <c r="B9" s="7" t="inlineStr">
         <is>
           <t>test.RCV.xml</t>
         </is>
       </c>
-      <c r="C9" s="6" t="inlineStr">
+      <c r="C9" s="7" t="inlineStr">
         <is>
           <t>bw_mapping2.xml</t>
         </is>
       </c>
-      <c r="D9" s="6" t="n"/>
-      <c r="E9" s="6" t="n"/>
+      <c r="D9" s="7" t="n"/>
+      <c r="E9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n"/>
-      <c r="B10" s="6" t="n"/>
-      <c r="C10" s="6" t="n"/>
-      <c r="D10" s="6" t="n"/>
-      <c r="E10" s="6" t="n"/>
+      <c r="A10" s="7" t="n"/>
+      <c r="B10" s="7" t="n"/>
+      <c r="C10" s="7" t="n"/>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="inlineStr">
+      <c r="A11" s="9" t="inlineStr">
         <is>
           <t>송신 MQ 쿼리</t>
         </is>
       </c>
-      <c r="B11" s="6" t="n"/>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>송신 BW 쿼리</t>
         </is>
       </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
         <is>
           <t>비교</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" s="6" t="inlineStr">
         <is>
           <t>비교 상세</t>
         </is>
       </c>
     </row>
     <row r="12" ht="150" customHeight="1">
-      <c r="A12" s="9" t="inlineStr">
+      <c r="A12" s="10" t="inlineStr">
         <is>
           <t>SELECT * FROM OWNER.TEST_TABLE WHERE 1=1 AND col1 = :value1 AND col2 = :value2</t>
         </is>
       </c>
-      <c r="B12" s="6" t="n"/>
-      <c r="C12" s="9" t="inlineStr">
+      <c r="B12" s="10" t="inlineStr">
         <is>
           <t>INSERT INTO OWNER.TEST_TABLE (col1, col2, col3) VALUES (:1, :2, :3)</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>일치</t>
         </is>
       </c>
-      <c r="E12" s="9" t="inlineStr">
+      <c r="D12" s="7" t="inlineStr">
         <is>
           <t>일치 - 테이블과 칼럼이 모두 동일합니다.</t>
         </is>
       </c>
+      <c r="E12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n"/>
-      <c r="B13" s="6" t="n"/>
-      <c r="C13" s="6" t="n"/>
-      <c r="D13" s="6" t="n"/>
-      <c r="E13" s="6" t="n"/>
+      <c r="A13" s="7" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="inlineStr">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>수신 MQ 쿼리</t>
         </is>
       </c>
-      <c r="B14" s="6" t="n"/>
-      <c r="C14" s="8" t="inlineStr">
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>수신 BW 쿼리</t>
         </is>
       </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>비교</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="D14" s="6" t="inlineStr">
         <is>
           <t>비교 상세</t>
         </is>
       </c>
+      <c r="E14" s="7" t="n"/>
     </row>
     <row r="15" ht="150" customHeight="1">
-      <c r="A15" s="9" t="inlineStr">
+      <c r="A15" s="10" t="inlineStr">
         <is>
           <t>SELECT * FROM OWNER.TEST_RCV_TABLE WHERE status = 'Y'</t>
         </is>
       </c>
-      <c r="B15" s="6" t="n"/>
-      <c r="C15" s="9" t="inlineStr">
+      <c r="B15" s="10" t="inlineStr">
         <is>
           <t>INSERT INTO OWNER.TEST_RCV_TABLE (col1, col2, status) VALUES (:1, :2, 'Y')</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>차이</t>
         </is>
       </c>
-      <c r="E15" s="9" t="inlineStr">
+      <c r="D15" s="10" t="inlineStr">
         <is>
           <t>차이 - MQ 쿼리는 모든 컬럼을 선택하지만 BW 쿼리는 특정 컬럼만 선택합니다.
 - MQ: status = 'Y'
 - BW: VALUES 값에 직접 'Y' 사용</t>
         </is>
       </c>
+      <c r="E15" s="7" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D2:E2"/>
+  <mergeCells count="4">
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/comp_mq_bw_sample.xlsx
+++ b/comp_mq_bw_sample.xlsx
@@ -480,13 +480,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="30" customWidth="1" min="7" max="7"/>
-    <col width="30" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
     <col width="15" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
@@ -595,7 +595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,10 +604,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -620,6 +621,7 @@
       <c r="C1" s="7" t="n"/>
       <c r="D1" s="7" t="n"/>
       <c r="E1" s="7" t="n"/>
+      <c r="F1" s="7" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="8" t="inlineStr">
@@ -643,6 +645,7 @@
         </is>
       </c>
       <c r="E2" s="7" t="n"/>
+      <c r="F2" s="7" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -666,6 +669,7 @@
         </is>
       </c>
       <c r="E3" s="7" t="n"/>
+      <c r="F3" s="7" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="8" t="inlineStr">
@@ -689,6 +693,7 @@
         </is>
       </c>
       <c r="E4" s="7" t="n"/>
+      <c r="F4" s="7" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n"/>
@@ -696,6 +701,7 @@
       <c r="C5" s="7" t="n"/>
       <c r="D5" s="7" t="n"/>
       <c r="E5" s="7" t="n"/>
+      <c r="F5" s="7" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="9" t="inlineStr">
@@ -708,13 +714,14 @@
           <t>MQ 송신 파일</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>BW 송신 파일명</t>
-        </is>
-      </c>
-      <c r="D6" s="7" t="n"/>
+      <c r="C6" s="7" t="n"/>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>BW 송신 파일</t>
+        </is>
+      </c>
       <c r="E6" s="7" t="n"/>
+      <c r="F6" s="7" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n"/>
@@ -723,13 +730,14 @@
           <t>test.SND.xml</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C7" s="7" t="n"/>
+      <c r="D7" s="7" t="inlineStr">
         <is>
           <t>bw_mapping.xml</t>
         </is>
       </c>
-      <c r="D7" s="7" t="n"/>
       <c r="E7" s="7" t="n"/>
+      <c r="F7" s="7" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="inlineStr">
@@ -742,13 +750,14 @@
           <t>MQ 수신 파일</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>BW 수신 파일명</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>BW 수신 파일</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n"/>
@@ -757,13 +766,14 @@
           <t>test.RCV.xml</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr">
+      <c r="C9" s="7" t="n"/>
+      <c r="D9" s="7" t="inlineStr">
         <is>
           <t>bw_mapping2.xml</t>
         </is>
       </c>
-      <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
+      <c r="F9" s="7" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n"/>
@@ -771,25 +781,27 @@
       <c r="C10" s="7" t="n"/>
       <c r="D10" s="7" t="n"/>
       <c r="E10" s="7" t="n"/>
+      <c r="F10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>송신 MQ 쿼리</t>
         </is>
       </c>
       <c r="B11" s="7" t="n"/>
-      <c r="C11" s="9" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>송신 BW 쿼리</t>
         </is>
       </c>
-      <c r="D11" s="6" t="inlineStr">
+      <c r="D11" s="7" t="n"/>
+      <c r="E11" s="6" t="inlineStr">
         <is>
           <t>비교</t>
         </is>
       </c>
-      <c r="E11" s="6" t="inlineStr">
+      <c r="F11" s="6" t="inlineStr">
         <is>
           <t>비교 상세</t>
         </is>
@@ -801,22 +813,23 @@
           <t>SELECT * FROM OWNER.TEST_TABLE WHERE 1=1 AND col1 = :value1 AND col2 = :value2</t>
         </is>
       </c>
-      <c r="B12" s="10" t="inlineStr">
+      <c r="B12" s="7" t="n"/>
+      <c r="C12" s="10" t="inlineStr">
         <is>
           <t>INSERT INTO OWNER.TEST_TABLE (col1, col2, col3) VALUES (:1, :2, :3)</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>일치</t>
         </is>
       </c>
-      <c r="D12" s="7" t="inlineStr">
+      <c r="F12" s="10" t="inlineStr">
         <is>
           <t>일치 - 테이블과 칼럼이 모두 동일합니다.</t>
         </is>
       </c>
-      <c r="E12" s="7" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n"/>
@@ -824,6 +837,7 @@
       <c r="C13" s="7" t="n"/>
       <c r="D13" s="7" t="n"/>
       <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
@@ -831,22 +845,23 @@
           <t>수신 MQ 쿼리</t>
         </is>
       </c>
-      <c r="B14" s="6" t="inlineStr">
+      <c r="B14" s="7" t="n"/>
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>수신 BW 쿼리</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr">
+      <c r="D14" s="7" t="n"/>
+      <c r="E14" s="6" t="inlineStr">
         <is>
           <t>비교</t>
         </is>
       </c>
-      <c r="D14" s="6" t="inlineStr">
+      <c r="F14" s="6" t="inlineStr">
         <is>
           <t>비교 상세</t>
         </is>
       </c>
-      <c r="E14" s="7" t="n"/>
     </row>
     <row r="15" ht="150" customHeight="1">
       <c r="A15" s="10" t="inlineStr">
@@ -854,31 +869,40 @@
           <t>SELECT * FROM OWNER.TEST_RCV_TABLE WHERE status = 'Y'</t>
         </is>
       </c>
-      <c r="B15" s="10" t="inlineStr">
+      <c r="B15" s="7" t="n"/>
+      <c r="C15" s="10" t="inlineStr">
         <is>
           <t>INSERT INTO OWNER.TEST_RCV_TABLE (col1, col2, status) VALUES (:1, :2, 'Y')</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="5" t="inlineStr">
         <is>
           <t>차이</t>
         </is>
       </c>
-      <c r="D15" s="10" t="inlineStr">
+      <c r="F15" s="10" t="inlineStr">
         <is>
           <t>차이 - MQ 쿼리는 모든 컬럼을 선택하지만 BW 쿼리는 특정 컬럼만 선택합니다.
 - MQ: status = 'Y'
 - BW: VALUES 값에 직접 'Y' 사용</t>
         </is>
       </c>
-      <c r="E15" s="7" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D3:E3"/>
+  <mergeCells count="12">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/comp_mq_bw_sample.xlsx
+++ b/comp_mq_bw_sample.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,6 +28,13 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <sz val="9"/>
     </font>
   </fonts>
   <fills count="6">
@@ -80,7 +87,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -97,12 +104,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -603,12 +613,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -825,7 +835,7 @@
           <t>일치</t>
         </is>
       </c>
-      <c r="F12" s="10" t="inlineStr">
+      <c r="F12" s="11" t="inlineStr">
         <is>
           <t>일치 - 테이블과 칼럼이 모두 동일합니다.</t>
         </is>
@@ -881,7 +891,7 @@
           <t>차이</t>
         </is>
       </c>
-      <c r="F15" s="10" t="inlineStr">
+      <c r="F15" s="11" t="inlineStr">
         <is>
           <t>차이 - MQ 쿼리는 모든 컬럼을 선택하지만 BW 쿼리는 특정 컬럼만 선택합니다.
 - MQ: status = 'Y'

--- a/comp_mq_bw_sample.xlsx
+++ b/comp_mq_bw_sample.xlsx
@@ -28,9 +28,9 @@
     </font>
     <font>
       <b val="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <b val="1"/>
       <sz val="10"/>
     </font>
     <font>
@@ -87,34 +87,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,7 +623,7 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="30" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -830,12 +836,12 @@
         </is>
       </c>
       <c r="D12" s="7" t="n"/>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="11" t="inlineStr">
         <is>
           <t>일치</t>
         </is>
       </c>
-      <c r="F12" s="11" t="inlineStr">
+      <c r="F12" s="12" t="inlineStr">
         <is>
           <t>일치 - 테이블과 칼럼이 모두 동일합니다.</t>
         </is>
@@ -886,12 +892,12 @@
         </is>
       </c>
       <c r="D15" s="7" t="n"/>
-      <c r="E15" s="5" t="inlineStr">
+      <c r="E15" s="13" t="inlineStr">
         <is>
           <t>차이</t>
         </is>
       </c>
-      <c r="F15" s="11" t="inlineStr">
+      <c r="F15" s="12" t="inlineStr">
         <is>
           <t>차이 - MQ 쿼리는 모든 컬럼을 선택하지만 BW 쿼리는 특정 컬럼만 선택합니다.
 - MQ: status = 'Y'
